--- a/analysis/post_gemini_data/participant320/Sheet1.xlsx
+++ b/analysis/post_gemini_data/participant320/Sheet1.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,449 +422,277 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>aqrg2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>arg6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>args</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>condstte</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>constate2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>exteranl4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>external2</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>loopstate</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>loopstate2</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>methcoall</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>methdodec</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>methodall7</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>methodcall</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>methodcall2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>methodcall3</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>methodcall4</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>methodcall6</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>methodcall7</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>summary</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var10</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var12</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>var8</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>var9</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>vars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>aqrg2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>arg2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>arg4</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>arg6</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>args</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>condstte</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>constate2</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>exteranl4</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>external</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>external2</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>literal</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>literal2</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>literal3</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>loopstate</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>loopstate2</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>methcoall</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>methdodec</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>methodall7</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>methodcall</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>methodcall2</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>methodcall3</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>methodcall4</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>methodcall6</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>methodcall7</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>var10</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>var12</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>var4</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>var5</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>var6</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>var7</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>var8</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>var9</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>vars</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -884,32 +700,46 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
       <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AF3" t="n">
+        <v>9</v>
+      </c>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
@@ -918,7 +748,9 @@
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
@@ -926,7 +758,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
+          <t>Fixation count</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -935,11 +767,11 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -947,7 +779,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -955,24 +787,24 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="n">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="inlineStr"/>
@@ -983,7 +815,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4" t="inlineStr"/>
       <c r="AQ4" t="inlineStr"/>
@@ -992,7 +824,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
+          <t>Dwell time (ms)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1001,11 +833,11 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>100.06</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>2903.28</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -1013,7 +845,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
-        <v>137</v>
+        <v>40809.77</v>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -1021,24 +853,24 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>600.97</v>
       </c>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>367.07</v>
       </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>600.97</v>
       </c>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="n">
-        <v>89</v>
+        <v>27468.28</v>
       </c>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="inlineStr"/>
@@ -1049,7 +881,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="n">
-        <v>1</v>
+        <v>600.97</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1058,7 +890,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
+          <t>Dwell time (%)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1067,11 +899,11 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>100.06</v>
+        <v>0.09</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>2903.28</v>
+        <v>2.59</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1079,7 +911,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>40809.77</v>
+        <v>36.4</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -1087,24 +919,24 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>600.97</v>
+        <v>0.54</v>
       </c>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
-        <v>367.07</v>
+        <v>0.33</v>
       </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>600.97</v>
+        <v>0.54</v>
       </c>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="n">
-        <v>27468.28</v>
+        <v>24.5</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
@@ -1115,7 +947,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="n">
-        <v>600.97</v>
+        <v>0.54</v>
       </c>
       <c r="AP6" t="inlineStr"/>
       <c r="AQ6" t="inlineStr"/>
@@ -1124,7 +956,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
+          <t>Fixation duration (ms)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1133,11 +965,11 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.09</v>
+        <v>100.06</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>2.59</v>
+        <v>290.33</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1145,7 +977,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>36.4</v>
+        <v>297.88</v>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
@@ -1153,24 +985,24 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>0.54</v>
+        <v>600.97</v>
       </c>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="n">
-        <v>0.33</v>
+        <v>367.07</v>
       </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="n">
-        <v>0.54</v>
+        <v>600.97</v>
       </c>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="n">
-        <v>24.5</v>
+        <v>308.63</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
@@ -1181,7 +1013,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="n">
-        <v>0.54</v>
+        <v>600.97</v>
       </c>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1190,7 +1022,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
+          <t>First fixation duration (ms)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1203,7 +1035,7 @@
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>290.33</v>
+        <v>100.06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1211,7 +1043,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>297.88</v>
+        <v>284.88</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1236,7 +1068,7 @@
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="n">
-        <v>308.63</v>
+        <v>183.49</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
@@ -1254,56 +1086,38 @@
       <c r="AR8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>100.06</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>100.06</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="n">
-        <v>284.88</v>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>600.97</v>
-      </c>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
-      <c r="W9" t="n">
-        <v>367.07</v>
-      </c>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="n">
-        <v>600.97</v>
-      </c>
+      <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="n">
-        <v>183.49</v>
-      </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
       <c r="AI9" t="inlineStr"/>
@@ -1312,9 +1126,7 @@
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="n">
-        <v>600.97</v>
-      </c>
+      <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
       <c r="AR9" t="inlineStr"/>
